--- a/Java-Rice-GUI-Plan/Java Food/Java Food.xlsx
+++ b/Java-Rice-GUI-Plan/Java Food/Java Food.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Documents\2nd Sem\Programming\Moonlight Tavern\Dolphin\Java-GUI\Java-Rice-GUI-Plan\Java Food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD00356C-0C6C-4B99-9ACB-24A610244887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5B501F-50BE-47D3-B72B-91C638062886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{677E8D86-14EB-4CFA-A595-A4D8709F540E}"/>
+    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{677E8D86-14EB-4CFA-A595-A4D8709F540E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>name</t>
   </si>
@@ -102,9 +102,6 @@
     <t>Cheesesticks</t>
   </si>
   <si>
-    <t>Crispy Pig Ears</t>
-  </si>
-  <si>
     <t>Dynamite</t>
   </si>
   <si>
@@ -130,6 +127,18 @@
   </si>
   <si>
     <t>Spicy Wings</t>
+  </si>
+  <si>
+    <t>Crispy Fried Pig Ears</t>
+  </si>
+  <si>
+    <t>Add-on</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Viand</t>
   </si>
 </sst>
 </file>
@@ -194,6 +203,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55EF336D-FB41-48A8-9D1A-007456783477}" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:F1048576" xr:uid="{55EF336D-FB41-48A8-9D1A-007456783477}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+    <sortCondition ref="C1:C1048576"/>
+  </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{34E71896-B294-4FD4-BC4B-D90BFB7CC845}" name="name"/>
     <tableColumn id="2" xr3:uid="{5740CE5A-5994-46D0-A619-C4DF0CFCADFC}" name="barcode"/>
@@ -505,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AE3223-CE30-4492-9223-9620737AD16E}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,366 +551,418 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11" s="1">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C14" s="1">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B16" s="1">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C17" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B21" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C21" s="1">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B24" s="1">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C24" s="1">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>25</v>
       </c>
       <c r="C26" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>26</v>
       </c>
       <c r="C27" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
   </sheetData>

--- a/Java-Rice-GUI-Plan/Java Food/Java Food.xlsx
+++ b/Java-Rice-GUI-Plan/Java Food/Java Food.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Documents\2nd Sem\Programming\Moonlight Tavern\Dolphin\Java-GUI\Java-Rice-GUI-Plan\Java Food\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5B501F-50BE-47D3-B72B-91C638062886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7789FAC0-7037-41D0-AE3C-1676369E870B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1170" windowWidth="21600" windowHeight="11295" xr2:uid="{677E8D86-14EB-4CFA-A595-A4D8709F540E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{677E8D86-14EB-4CFA-A595-A4D8709F540E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -139,12 +139,18 @@
   </si>
   <si>
     <t>Viand</t>
+  </si>
+  <si>
+    <t>raw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,16 +180,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;₱&quot;#,##0.00"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -201,18 +221,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55EF336D-FB41-48A8-9D1A-007456783477}" name="Table1" displayName="Table1" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:F1048576" xr:uid="{55EF336D-FB41-48A8-9D1A-007456783477}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{55EF336D-FB41-48A8-9D1A-007456783477}" name="Table1" displayName="Table1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G1048576" xr:uid="{55EF336D-FB41-48A8-9D1A-007456783477}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
     <sortCondition ref="C1:C1048576"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{34E71896-B294-4FD4-BC4B-D90BFB7CC845}" name="name"/>
     <tableColumn id="2" xr3:uid="{5740CE5A-5994-46D0-A619-C4DF0CFCADFC}" name="barcode"/>
     <tableColumn id="3" xr3:uid="{AB9A4FD3-B374-403D-A4B1-E6E3536A4B38}" name="price"/>
     <tableColumn id="4" xr3:uid="{71E84552-0209-4AD0-AA80-17A56FC6A8D3}" name="quantity"/>
     <tableColumn id="5" xr3:uid="{D4405FE5-94CF-4A90-BBBD-06C22795088C}" name="type"/>
-    <tableColumn id="6" xr3:uid="{A702D47B-708F-4148-B778-6E32714FC275}" name="mark-up"/>
+    <tableColumn id="6" xr3:uid="{A702D47B-708F-4148-B778-6E32714FC275}" name="mark-up" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{104D0CA1-2F2A-40D4-9D04-F0E7C7619F67}" name="raw" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -515,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73AE3223-CE30-4492-9223-9620737AD16E}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,10 +547,11 @@
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,11 +567,14 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -563,9 +588,15 @@
       <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="5">
+        <f>Table1[[#This Row],[price]]-G2</f>
+        <v>8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -573,15 +604,21 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3" s="5">
+        <f>Table1[[#This Row],[price]]-G3</f>
+        <v>7</v>
+      </c>
+      <c r="G3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -589,196 +626,268 @@
         <v>16</v>
       </c>
       <c r="C4" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="5">
+        <f>Table1[[#This Row],[price]]-G4</f>
+        <v>7</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="5">
+        <f>Table1[[#This Row],[price]]-G5</f>
+        <v>11</v>
+      </c>
+      <c r="G5" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F6" s="5">
+        <f>Table1[[#This Row],[price]]-G6</f>
+        <v>11</v>
+      </c>
+      <c r="G6" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F7" s="5">
+        <f>Table1[[#This Row],[price]]-G7</f>
+        <v>12.5</v>
+      </c>
+      <c r="G7" s="4">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <v>25</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5">
+        <f>Table1[[#This Row],[price]]-G8</f>
+        <v>15.35</v>
+      </c>
+      <c r="G8" s="4">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B9" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5">
+        <f>Table1[[#This Row],[price]]-G9</f>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="G9" s="4">
+        <v>10.666666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B10" s="1">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="5">
+        <f>Table1[[#This Row],[price]]-G10</f>
+        <v>9</v>
+      </c>
+      <c r="G10" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C11" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5">
+        <f>Table1[[#This Row],[price]]-G11</f>
+        <v>17.833333333333332</v>
+      </c>
+      <c r="G11" s="4">
+        <v>21.166666666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C12" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="5">
+        <f>Table1[[#This Row],[price]]-G12</f>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="G12" s="4">
+        <v>27.333333333333332</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F13" s="5">
+        <f>Table1[[#This Row],[price]]-G13</f>
+        <v>29.166666666666664</v>
+      </c>
+      <c r="G13" s="4">
+        <v>9.8333333333333339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B14" s="1">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F14" s="5">
+        <f>Table1[[#This Row],[price]]-G14</f>
+        <v>4</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="5">
+        <f>Table1[[#This Row],[price]]-G15</f>
+        <v>16</v>
+      </c>
+      <c r="G15" s="4">
         <v>33</v>
       </c>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
         <v>9</v>
-      </c>
-      <c r="B16" s="1">
-        <v>4</v>
       </c>
       <c r="C16" s="1">
         <v>49</v>
@@ -787,183 +896,255 @@
       <c r="E16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="5">
+        <f>Table1[[#This Row],[price]]-G16</f>
+        <v>18.5</v>
+      </c>
+      <c r="G16" s="4">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C17" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="5">
+        <f>Table1[[#This Row],[price]]-G17</f>
+        <v>13</v>
+      </c>
+      <c r="G17" s="4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="5">
+        <f>Table1[[#This Row],[price]]-G18</f>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="G18" s="4">
+        <v>40.666666666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F19" s="5">
+        <f>Table1[[#This Row],[price]]-G19</f>
+        <v>4</v>
+      </c>
+      <c r="G19" s="4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B20" s="1">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="F20" s="5">
+        <f>Table1[[#This Row],[price]]-G20</f>
+        <v>6</v>
+      </c>
+      <c r="G20" s="4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <f>Table1[[#This Row],[price]]-G21</f>
+        <v>11</v>
+      </c>
+      <c r="G21" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="B22" s="1">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F22" s="5">
+        <f>Table1[[#This Row],[price]]-G22</f>
+        <v>18.333333333333336</v>
+      </c>
+      <c r="G22" s="4">
+        <v>50.666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C23" s="1">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="F23" s="5">
+        <f>Table1[[#This Row],[price]]-G23</f>
+        <v>15</v>
+      </c>
+      <c r="G23" s="4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="5">
+        <f>Table1[[#This Row],[price]]-G24</f>
+        <v>9</v>
+      </c>
+      <c r="G24" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25" s="1">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <f>Table1[[#This Row],[price]]-G25</f>
+        <v>22.75</v>
+      </c>
+      <c r="G25" s="4">
+        <v>66.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="5">
+        <f>Table1[[#This Row],[price]]-G26</f>
+        <v>19.333333333333329</v>
+      </c>
+      <c r="G26" s="4">
+        <v>99.666666666666671</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B27" s="1">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C27" s="1">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="5">
+        <f>Table1[[#This Row],[price]]-G27</f>
+        <v>22.5</v>
+      </c>
+      <c r="G27" s="4">
+        <v>106.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
